--- a/Thom_Solidworks_2/Umpa/Classeur1.xlsx
+++ b/Thom_Solidworks_2/Umpa/Classeur1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thom Stark\Documents\GitHub\Covid19\Thom_Solidworks_2\Umpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36E15E97-07E3-4895-930F-6F1B545FBA2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88432386-A95C-494F-90EA-8B76A72D7071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21240" yWindow="1305" windowWidth="14925" windowHeight="9120" xr2:uid="{0EB1D5C4-70C6-4C9E-B329-3D43B487AFCB}"/>
+    <workbookView xWindow="20250" yWindow="915" windowWidth="14925" windowHeight="9120" activeTab="3" xr2:uid="{0EB1D5C4-70C6-4C9E-B329-3D43B487AFCB}"/>
   </bookViews>
   <sheets>
     <sheet name="V2" sheetId="1" r:id="rId1"/>
     <sheet name="Arduino" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="212">
   <si>
     <t>C1,C3,C18,C20,C22</t>
   </si>
@@ -660,6 +661,9 @@
   </si>
   <si>
     <t>(pb stock)</t>
+  </si>
+  <si>
+    <t>MOUSER</t>
   </si>
 </sst>
 </file>
@@ -690,7 +694,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,6 +704,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,13 +736,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1048,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5EE566-7EC7-4DEA-889E-392B87A15CDF}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1071,7 @@
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1079,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1096,7 +1108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1116,7 +1128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1136,7 +1148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1153,7 +1165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1173,7 +1185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1187,7 +1199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1207,30 +1219,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1250,7 +1265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1270,7 +1285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1290,7 +1305,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1307,24 +1322,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K14" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1341,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1648,7 +1666,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1668,7 +1686,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1685,7 +1703,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1705,7 +1723,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1722,7 +1740,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -1742,7 +1760,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1759,7 +1777,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1779,53 +1797,59 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="K40" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>41</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K41" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -1845,7 +1869,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -1868,7 +1892,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -1888,7 +1912,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -1902,7 +1926,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -1922,7 +1946,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -2518,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91F34FE-761B-435C-835A-3A8966CF3EA4}">
   <dimension ref="A2:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3344,25 +3368,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="48" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>1</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="E48" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="4">
         <v>20</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="5" t="s">
         <v>206</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3545,4 +3572,19 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09168C81-C6A3-4EFF-B100-B3B5A9BE67B2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C3:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Thom_Solidworks_2/Umpa/Classeur1.xlsx
+++ b/Thom_Solidworks_2/Umpa/Classeur1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thom Stark\Documents\GitHub\Covid19\Thom_Solidworks_2\Umpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88432386-A95C-494F-90EA-8B76A72D7071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35C2900-F88E-4A54-B8B3-1A20002F9B7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20250" yWindow="915" windowWidth="14925" windowHeight="9120" activeTab="3" xr2:uid="{0EB1D5C4-70C6-4C9E-B329-3D43B487AFCB}"/>
+    <workbookView xWindow="21255" yWindow="1050" windowWidth="14925" windowHeight="9120" xr2:uid="{0EB1D5C4-70C6-4C9E-B329-3D43B487AFCB}"/>
   </bookViews>
   <sheets>
     <sheet name="V2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="250">
   <si>
     <t>C1,C3,C18,C20,C22</t>
   </si>
@@ -664,13 +664,127 @@
   </si>
   <si>
     <t>MOUSER</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>Qte</t>
+  </si>
+  <si>
+    <t>Commandé sur Mouser</t>
+  </si>
+  <si>
+    <t>Qte souhaité</t>
+  </si>
+  <si>
+    <t>Référence commandée</t>
+  </si>
+  <si>
+    <t>Qte commandée</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>545-2989 commandé sur Mouser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si possible, ajuster </t>
+  </si>
+  <si>
+    <t>Non commandée, LED</t>
+  </si>
+  <si>
+    <t>PIC (seulement 10 quand 20 mieux)</t>
+  </si>
+  <si>
+    <t>JST, 2 pin non monté</t>
+  </si>
+  <si>
+    <t>2 par arduinos, pas besoin de plus pour l'instant</t>
+  </si>
+  <si>
+    <t>1 par arduinos, pas besoin de plus pour l'instant</t>
+  </si>
+  <si>
+    <t>Si possible, ajuster, 2€</t>
+  </si>
+  <si>
+    <t>Si possible, ajuster, 1,65€</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Si possible, ajuster, 4€</t>
+  </si>
+  <si>
+    <t>Si possible, ajuster, 2,5€</t>
+  </si>
+  <si>
+    <t>LED non montée</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Si possible, améliorer cout (5€)</t>
+  </si>
+  <si>
+    <t>5 de moins, voir autre refd</t>
+  </si>
+  <si>
+    <t>Référence commandée : 213-2604</t>
+  </si>
+  <si>
+    <t>Si possible, ajuster, 7€</t>
+  </si>
+  <si>
+    <t>Non montée</t>
+  </si>
+  <si>
+    <t>Propo mouser</t>
+  </si>
+  <si>
+    <t>963-UMK107AB7105KA-T</t>
+  </si>
+  <si>
+    <t>Proposition mouser</t>
+  </si>
+  <si>
+    <t>579-25AA320A-I/SN</t>
+  </si>
+  <si>
+    <t>942-IRLR2905ZTRPBF</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>810-C1608X5R1E475K</t>
+  </si>
+  <si>
+    <t>579-24FJ128GA204IPT</t>
+  </si>
+  <si>
+    <t>AJUSTé à 10 sur MOUSER</t>
+  </si>
+  <si>
+    <t>10 pris sur mouser</t>
+  </si>
+  <si>
+    <t>RS: 915-5095, pris sur mouser</t>
+  </si>
+  <si>
+    <t>Pris sur mouser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,8 +807,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,6 +836,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -745,6 +883,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1062,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5EE566-7EC7-4DEA-889E-392B87A15CDF}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,7 +2138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD7D27E-25C2-4EF6-845C-789F508F4947}">
   <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2542,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91F34FE-761B-435C-835A-3A8966CF3EA4}">
   <dimension ref="A2:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3576,15 +3719,1269 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09168C81-C6A3-4EFF-B100-B3B5A9BE67B2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C3:G12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J57" sqref="F57:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <f>A2*10</f>
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C57" si="0">A3*10</f>
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7">
+        <v>10</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>75</v>
+      </c>
+      <c r="F37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+      <c r="F38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39">
+        <v>50</v>
+      </c>
+      <c r="F39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40">
+        <v>50</v>
+      </c>
+      <c r="F40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41">
+        <v>50</v>
+      </c>
+      <c r="F41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44">
+        <v>50</v>
+      </c>
+      <c r="F44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
+        <v>228</v>
+      </c>
+      <c r="G45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G46" s="7">
+        <v>10</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>1</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="8">
+        <v>20</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49">
+        <v>50</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54">
+        <v>100</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>100</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="J57" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F50" r:id="rId1" display="https://fr.rs-online.com/web/p/resistances-cms/2132604/" xr:uid="{E2A6EFFA-B7FB-480B-B716-A98A2DBCB456}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>